--- a/web/tmp/Mau_Exel_Moi.xlsx
+++ b/web/tmp/Mau_Exel_Moi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t xml:space="preserve">    TỔNG CỤC HẢI QUAN</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>%PC CÔNG VỤ</t>
+  </si>
+  <si>
+    <t>PC THU HÚT</t>
+  </si>
+  <si>
+    <t>%PC  THU HÚT</t>
   </si>
 </sst>
 </file>
@@ -305,69 +311,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,400 +675,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AF6" sqref="AF6:AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="34" width="22.140625" customWidth="1"/>
-    <col min="35" max="35" width="26.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
+    <col min="31" max="33" width="12.7109375" customWidth="1"/>
+    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" customWidth="1"/>
+    <col min="37" max="37" width="14.5703125" customWidth="1"/>
+    <col min="38" max="38" width="22.140625" customWidth="1"/>
+    <col min="39" max="39" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:39" ht="18.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="18.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:39" ht="18.75">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="25.5">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:39" ht="25.5">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
     </row>
-    <row r="4" spans="1:35" ht="18.75">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
+    <row r="4" spans="1:39" ht="18.75">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:39">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="V5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="10" t="s">
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AM5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:39" ht="15" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="12" t="s">
+      <c r="J6" s="17"/>
+      <c r="K6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="12" t="s">
+      <c r="N6" s="15"/>
+      <c r="O6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="10" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="T6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="15" t="s">
+      <c r="U6" s="8"/>
+      <c r="V6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="W6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="X6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="Y6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Z6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="AA6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="AB6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AC6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AD6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AE6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AH6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AI6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AJ6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AK6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
     </row>
-    <row r="7" spans="1:35" ht="34.5" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="20" t="s">
+    <row r="7" spans="1:39" ht="34.5" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
+      <c r="Q7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
+  <mergeCells count="41">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:AK5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AG6:AG7"/>
     <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -1066,16 +1113,23 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AI3"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:AG5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
